--- a/biology/Botanique/Liste_des_forêts_nationales_aux_États-Unis/Liste_des_forêts_nationales_aux_États-Unis.xlsx
+++ b/biology/Botanique/Liste_des_forêts_nationales_aux_États-Unis/Liste_des_forêts_nationales_aux_États-Unis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceci est la liste des forêts nationales aux États-Unis.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,26 +525,167 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Alabama
-Forêt nationale de Conecuh
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Conecuh
 Forêt nationale de Talladega
 Forêt nationale de Tuskegee
-Forêt nationale de William B. Bankhead
-Alaska
-Forêt nationale de Chugach
-Forêt nationale de Tongass
-Arizona
-Forêt nationale d'Apache-Sitgreaves
+Forêt nationale de William B. Bankhead</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Alaska</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Chugach
+Forêt nationale de Tongass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'Apache-Sitgreaves
 Forêt nationale de Coconino
 Forêt nationale de Coronado
 Forêt nationale de Kaibab
 Forêt nationale de Prescott
-Forêt nationale de Tonto
-Arkansas
-Forêt nationale d'Ouachita
-Forêt nationale d'Ozark-St. Francis
-Californie
-Forêt nationale d'Angeles
+Forêt nationale de Tonto</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arkansas</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'Ouachita
+Forêt nationale d'Ozark-St. Francis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Californie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'Angeles
 Forêt nationale de Cleveland
 Forêt nationale d'Eldorado
 Forêt nationale d'Inyo
@@ -549,18 +702,120 @@
 Forêt nationale de Sierra
 Forêt nationale de Six Rivers
 Forêt nationale de Stanislaus
-Forêt nationale de Tahoe
-Caroline du Nord
-Forêt nationale de Croatan
+Forêt nationale de Tahoe</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caroline du Nord</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Croatan
 Forêt nationale de Nantahala
 Forêt nationale de Pisgah
-Forêt nationale d'Uwharrie
-Caroline du Sud
-Forêt nationale de Francis Marion
+Forêt nationale d'Uwharrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caroline du Sud</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Francis Marion
 Forêt nationale de Sumter
-Andrew Pickens Ranger District
-Colorado
-Forêt nationale d'Arapaho
+Andrew Pickens Ranger District</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'Arapaho
 Forêt nationale de Grand Mes
 Forêt nationale de Gunnison
 Forêt nationale de Pike
@@ -570,20 +825,156 @@
 Forêt nationale de San Isabel
 Forêt nationale de San Juan
 Forêt nationale d'Uncompahgre
-Forêt nationale de White River
-Dakota du Sud
-Forêt nationale des Black Hills
-Floride
-Forêt nationale d'Apalachicola[1].
-Forêt nationale de Choctawhatchee[1]
-Forêt nationale d'Ocala[1]
-Forêt nationale d'Osceola[1]
-Géorgie
-Forêt nationale d'Oconee
+Forêt nationale de White River</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dakota du Sud</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Forêt nationale des Black Hills</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Floride</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'Apalachicola.
+Forêt nationale de Choctawhatchee
+Forêt nationale d'Ocala
+Forêt nationale d'Osceola</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Géorgie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'Oconee
 Forêt nationale de Chattahoochee
-Forêt nationale de Chattahoochee-Oconee
-Idaho
-Forêt nationale de Boise
+Forêt nationale de Chattahoochee-Oconee</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Boise
 Forêt nationale de Caribou-Targhee
 Forêt nationale de Clearwater
 Forêt nationale de Coeur d'Alene
@@ -593,36 +984,376 @@
 Forêt nationale de Salmon-Challis
 Forêt nationale de St. Joe
 Forêt nationale de Sawtooth
-Forêts nationales de la Panhandle de l'Idaho
-Illinois
-Forêt nationale de Shawnee
-Indiana
-Forêt nationale d'Hoosier
-Kentucky
-Forêt nationale Daniel Boone
-Forêts nationales de George Washington et de Jefferson
-Louisiane
-Forêt nationale de Kisatchie
-Maine
-Forêt nationale de White Mountain
-Michigan
-Forêt nationale d'Hiawatha
+Forêts nationales de la Panhandle de l'Idaho</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Shawnee</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'Hoosier</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Forêt nationale Daniel Boone
+Forêts nationales de George Washington et de Jefferson</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Louisiane</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Kisatchie</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Forêt nationale de White Mountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Michigan</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'Hiawatha
 Forêts nationales d'Huron-Manistee
-Forêt nationale d'Ottawa
-Minnesota
-Forêt nationale de Chippewa
-Forêt nationale de Superior
-Mississippi
-Forêt nationale de Bienville
+Forêt nationale d'Ottawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Chippewa
+Forêt nationale de Superior</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mississippi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Bienville
 Forêt nationale de Delta
 Forêt nationale de De Soto
 Forêt nationale d'Holly Springs
 Forêt nationale d'Homochitto
-Forêt nationale de Tombigee
-Missouri
-Forêt nationale de Mark Twain
-Montana
-Forêt nationale de Beaverhead-Deerlodge
+Forêt nationale de Tombigee</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Missouri</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Mark Twain</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Beaverhead-Deerlodge
 Forêt nationale de Bitterroot
 Forêt nationale de Custer
 Forêt nationale de Flathead
@@ -630,30 +1361,302 @@
 Forêt nationale d'Helena
 Forêt nationale de Kootenai
 Forêt nationale de Lewis et Clark
-Forêt nationale de Lolo
-Nebraska
-Forêt nationale du Nebraska
-Forêt nationale de Samuel R. McKelvie
-Nevada
-Forêt nationale de Humboldt-Toiyabe
-New Hampshire
-Forêt nationale de White Mountain
-New York
-Forêt nationale de Finger Lakes
-Nouveau-Mexique
-Forêt nationale d'Apache-Sitgreaves
+Forêt nationale de Lolo</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Forêt nationale du Nebraska
+Forêt nationale de Samuel R. McKelvie</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Nevada</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Humboldt-Toiyabe</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>New Hampshire</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Forêt nationale de White Mountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Finger Lakes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Nouveau-Mexique</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'Apache-Sitgreaves
 Forêt nationale de Carson
 Forêt nationale de Cibola
 Forêt nationale de Coronado
 Forêt nationale de Gila
 Forêt nationale de Lincoln
-Forêt nationale de Santa Fe
-Ohio
-Forêt nationale de Wayne
-Oklahoma
-Forêt nationale d'Ouachita
-Oregon
-Forêt nationale de Deschutes
+Forêt nationale de Santa Fe</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Wayne</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Oklahoma</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'Ouachita</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Deschutes
 Forêt nationale de Fremont
 Forêt nationale de Malheur
 Forêt nationale du Mont Hood
@@ -664,46 +1667,420 @@
 Forêt nationale d'Umpqua
 Forêt nationale de Wallowa-Whitman
 Forêt nationale de Willamette
-Forêt nationale de Winema
-Pennsylvanie
-Forêt nationale d'Allegheny
-Porto Rico
-Forêt nationale d'El Yunque
-Tennessee
-Forêt nationale de Cherokee
-Texas
-Forêt nationale d'Angelina
+Forêt nationale de Winema</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Pennsylvanie</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'Allegheny</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Porto Rico</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'El Yunque</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tennessee</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Cherokee</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'Angelina
 Forêt nationale de Davy Crockett
 Forêt nationale de Sabine
-Forêt nationale de Sam Houston
-Utah
-Forêt nationale d'Ashley
+Forêt nationale de Sam Houston</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'Ashley
 Forêt nationale de Dixie
 Forêt nationale de Fishlake
 Forêt nationale de Manti-La Sal
-Forêt nationale d'Uinta-Wasatch-Cache
-Vermont
-Forêt nationale de Green Mountain
-Virginie
-Forêt nationale de George Washington
-Forêt nationale de Jefferson
-Virginie-Occidentale
-Forêt nationale de George Washington
-Forêt nationale de Monongahela
-Washington
-Forêt nationale de Colville
+Forêt nationale d'Uinta-Wasatch-Cache</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Vermont</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Green Mountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Virginie</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Forêt nationale de George Washington
+Forêt nationale de Jefferson</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Virginie-Occidentale</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Forêt nationale de George Washington
+Forêt nationale de Monongahela</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Colville
 Forêt nationale de Gifford Pinchot
 Forêt nationale du Mont Baker-Snoqualmie
 Forêt nationale de Kaniksu
 Forêt nationale d'Okanogan
 Forêt nationale Olympique
 Forêt nationale d'Umatilla
-Forêt nationale de Wenatchee
-Wisconsin
-Forêt nationale de Chequamegon
-Forêt nationale de Nicolet
-Wyoming
-Forêt nationale d'Ashley
+Forêt nationale de Wenatchee</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Forêt nationale de Chequamegon
+Forêt nationale de Nicolet</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_nationales_aux_États-Unis</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_nationales_aux_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Liste par État</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Forêt nationale d'Ashley
 Forêt nationale de Bighorn
 Forêt nationale de Bridger-Teton
 Forêt nationale de Medicine Bow - Routt
